--- a/IO-list_PLC.xlsx
+++ b/IO-list_PLC.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Flow-and-level-control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C2CF1D1-5CAD-44E9-A108-3848D3FCD4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C237B1E-235A-4257-B5BB-672BF53BF074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{12735B3E-3A78-47F2-8F42-0BA7FD944E35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{12735B3E-3A78-47F2-8F42-0BA7FD944E35}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Liste" sheetId="2" r:id="rId1"/>
-    <sheet name="nedtrekningsmotstand" sheetId="1" r:id="rId2"/>
+    <sheet name="SSR" sheetId="3" r:id="rId2"/>
+    <sheet name="nedtrekningsmotstand" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>Ohm</t>
   </si>
@@ -90,30 +91,12 @@
     <t>Relay output</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
     <t>Fast counting</t>
   </si>
   <si>
     <t>Kommentar</t>
   </si>
   <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
     <t>Lys1</t>
   </si>
   <si>
@@ -144,27 +127,12 @@
     <t>Analog compatible 0..10V</t>
   </si>
   <si>
-    <t>SSR 4A til pumpe</t>
-  </si>
-  <si>
-    <t>SSR 4A til motoventil, lukke</t>
-  </si>
-  <si>
-    <t>SSR 4A til motoventil, åpne</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
     <t>Q8</t>
   </si>
   <si>
     <t xml:space="preserve"> DM8 12/24R ekspansjonsmodul 1</t>
   </si>
   <si>
-    <t>SSR 4A til solenoid, åpne (fjederretur)</t>
-  </si>
-  <si>
     <t>Flødesmåler, pulser</t>
   </si>
   <si>
@@ -199,6 +167,66 @@
   </si>
   <si>
     <t>Close enough.</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>SSR Pumpe</t>
+  </si>
+  <si>
+    <t>A1 på SSR 4A til motoventil, lukke</t>
+  </si>
+  <si>
+    <t>A1 på SSR 4A til motoventil, åpne</t>
+  </si>
+  <si>
+    <t>A1 på SSR 4A til solenoid, åpne (fjederretur)</t>
+  </si>
+  <si>
+    <t>A1 på SSR 4A til pumpe</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>0V</t>
+  </si>
+  <si>
+    <t>PLS Q1.2</t>
+  </si>
+  <si>
+    <t>Q1.2</t>
+  </si>
+  <si>
+    <t>Q2.2</t>
+  </si>
+  <si>
+    <t>Q3.2</t>
+  </si>
+  <si>
+    <t>Q4.2</t>
+  </si>
+  <si>
+    <t>Q5.2</t>
+  </si>
+  <si>
+    <t>Q6.2</t>
+  </si>
+  <si>
+    <t>Q7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pumpe 0V kabel og </t>
+  </si>
+  <si>
+    <t>0V og 1N4007 diode til 13</t>
+  </si>
+  <si>
+    <t>Flyback / freewheling diode</t>
   </si>
 </sst>
 </file>
@@ -563,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158C7054-C034-4FCE-A32F-952632465441}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
@@ -577,12 +605,14 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -593,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -604,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -615,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -629,10 +659,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -643,10 +673,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,10 +687,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -671,10 +701,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -685,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -699,10 +729,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -710,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -721,10 +751,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -732,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -743,10 +773,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -754,10 +784,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -765,10 +795,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -776,10 +806,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -787,13 +817,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -801,13 +831,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -815,13 +845,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -829,10 +859,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -842,6 +872,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2354514F-BEDC-4E59-9D3C-2880B4D13F01}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F452F56-6AD2-460C-B773-EB3C9336BC6C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -857,7 +966,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B1">
         <v>500</v>
@@ -869,7 +978,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>16000</v>
@@ -887,7 +996,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <f>1/C3</f>
@@ -899,7 +1008,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>0.02</v>
@@ -910,7 +1019,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <f>C4*C5</f>
@@ -922,7 +1031,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
